--- a/week3/TestReport.xlsx
+++ b/week3/TestReport.xlsx
@@ -71,15 +71,6 @@
     <t>Добавление комментария к записи</t>
   </si>
   <si>
-    <t>Проверка того, что видеоролик воспроизводится корректно</t>
-  </si>
-  <si>
-    <t>Проверка на то, что кнопка работает согласно ожидаемому сценарию</t>
-  </si>
-  <si>
-    <t>Проверка добавления комментария</t>
-  </si>
-  <si>
     <r>
       <t>Кнопка</t>
     </r>
@@ -97,9 +88,6 @@
     </r>
   </si>
   <si>
-    <t>Проверка, что подписка производится корректно</t>
-  </si>
-  <si>
     <t>На данный момент ожидается проверка оповещения при добавлении новости, так как нет возможности добавить тестовую запись для проверки.</t>
   </si>
   <si>
@@ -109,7 +97,19 @@
     <t>Низкий</t>
   </si>
   <si>
-    <t>Проверка того, что осуществляется переход на страницу https://mail.ru/</t>
+    <t>Выполнена проверка того, что видеоролик воспроизводится корректно</t>
+  </si>
+  <si>
+    <t>Выполнена проверка на то, что кнопка работает согласно ожидаемому сценарию</t>
+  </si>
+  <si>
+    <t>Выполнена проверка добавления комментария</t>
+  </si>
+  <si>
+    <t>Выполнена проверка, что подписка производится корректно</t>
+  </si>
+  <si>
+    <t>Выполнена проверка того, что осуществляется переход на страницу https://mail.ru/</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -539,12 +539,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -599,12 +599,12 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
